--- a/variable_names.xlsx
+++ b/variable_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/557811sg_eur_nl/Documents/EUR/master/block 3/KPN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_1CB39DC98F79A8D366075C52F37BD272FACDD5B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC287200-A795-8241-9FA1-A69D079579AD}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_1CB39DC98F79A8D366075C52F37BD272FACDD5B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF1D8956-7708-154A-9558-3F95A18F76A6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>colnames.full.</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>competitor</t>
+  </si>
+  <si>
+    <t>customer_lifeStage</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,6 +801,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/variable_names.xlsx
+++ b/variable_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/557811sg_eur_nl/Documents/EUR/master/block 3/KPN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_1CB39DC98F79A8D366075C52F37BD272FACDD5B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF1D8956-7708-154A-9558-3F95A18F76A6}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_1CB39DC98F79A8D366075C52F37BD272FACDD5B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE73A53A-A0FD-BA4B-B3D7-DE0F1AC517F8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>colnames.full.</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>customer_lifeStage</t>
+  </si>
+  <si>
+    <t>mob_loc_total</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -806,6 +809,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
